--- a/results/table1/all.xlsx
+++ b/results/table1/all.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/table1/all.xlsx
+++ b/results/table1/all.xlsx
@@ -574,31 +574,31 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>2448</v>
+        <v>2553</v>
       </c>
       <c r="E4" t="n">
-        <v>10603</v>
+        <v>11113</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>1878</v>
+        <v>1987</v>
       </c>
       <c r="H4" t="n">
-        <v>7932</v>
+        <v>8423</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1467</v>
+        <v>1568</v>
       </c>
       <c r="K4" t="n">
-        <v>6130</v>
+        <v>6597</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>1205</v>
+        <v>1306</v>
       </c>
       <c r="N4" t="n">
-        <v>4872</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="5">
@@ -617,12 +617,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1015 (41.5)</t>
+          <t>1066 (41.8)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3965 (37.4)</t>
+          <t>4222 (38.0)</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -630,12 +630,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>777 (41.4)</t>
+          <t>833 (41.9)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2971 (37.5)</t>
+          <t>3214 (38.2)</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -643,12 +643,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>612 (41.7)</t>
+          <t>659 (42.0)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2291 (37.4)</t>
+          <t>2526 (38.3)</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -656,12 +656,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>501 (41.6)</t>
+          <t>548 (42.0)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1808 (37.1)</t>
+          <t>2032 (38.2)</t>
         </is>
       </c>
     </row>
@@ -675,45 +675,45 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>596 (24.3)</t>
+          <t>623 (24.4)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2561 (24.2)</t>
+          <t>2677 (24.1)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>453 (24.1)</t>
+          <t>480 (24.2)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1879 (23.7)</t>
+          <t>1988 (23.6)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>350 (23.9)</t>
+          <t>377 (24.0)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1411 (23.0)</t>
+          <t>1509 (22.9)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>280 (23.2)</t>
+          <t>307 (23.5)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1113 (22.8)</t>
+          <t>1203 (22.6)</t>
         </is>
       </c>
     </row>
@@ -727,45 +727,45 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>507 (20.7)</t>
+          <t>526 (20.6)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2420 (22.8)</t>
+          <t>2496 (22.5)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>392 (20.9)</t>
+          <t>412 (20.7)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1793 (22.6)</t>
+          <t>1868 (22.2)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>298 (20.3)</t>
+          <t>318 (20.3)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1385 (22.6)</t>
+          <t>1456 (22.1)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>243 (20.2)</t>
+          <t>263 (20.1)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1094 (22.5)</t>
+          <t>1168 (21.9)</t>
         </is>
       </c>
     </row>
@@ -779,45 +779,45 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>330 (13.5)</t>
+          <t>338 (13.2)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1657 (15.6)</t>
+          <t>1718 (15.5)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>256 (13.6)</t>
+          <t>262 (13.2)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1289 (16.3)</t>
+          <t>1353 (16.1)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>207 (14.1)</t>
+          <t>214 (13.6)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1043 (17.0)</t>
+          <t>1106 (16.8)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>181 (15.0)</t>
+          <t>188 (14.4)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>857 (17.6)</t>
+          <t>922 (17.3)</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1170 (47.8)</t>
+          <t>1217 (47.7)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4450 (42.0)</t>
+          <t>4665 (42.0)</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -850,12 +850,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>871 (46.4)</t>
+          <t>920 (46.3)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3346 (42.2)</t>
+          <t>3546 (42.1)</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -863,12 +863,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>687 (46.8)</t>
+          <t>731 (46.6)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2591 (42.3)</t>
+          <t>2786 (42.2)</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -876,12 +876,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>549 (45.6)</t>
+          <t>597 (45.7)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2042 (41.9)</t>
+          <t>2236 (42.0)</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>932 (38.1)</t>
+          <t>973 (38.1)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5370 (50.6)</t>
+          <t>5641 (50.8)</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -914,12 +914,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>712 (37.9)</t>
+          <t>751 (37.8)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3995 (50.4)</t>
+          <t>4253 (50.5)</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -927,12 +927,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>557 (38.0)</t>
+          <t>590 (37.6)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3014 (49.2)</t>
+          <t>3258 (49.4)</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -940,12 +940,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>455 (37.8)</t>
+          <t>489 (37.4)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2375 (48.7)</t>
+          <t>2611 (49.0)</t>
         </is>
       </c>
     </row>
@@ -959,45 +959,45 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>342 (14.0)</t>
+          <t>357 (14.0)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>560 (5.3)</t>
+          <t>594 (5.3)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>261 (13.9)</t>
+          <t>282 (14.2)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>438 (5.5)</t>
+          <t>467 (5.5)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>204 (13.9)</t>
+          <t>222 (14.2)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>348 (5.7)</t>
+          <t>376 (5.7)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>171 (14.2)</t>
+          <t>187 (14.3)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>302 (6.2)</t>
+          <t>328 (6.2)</t>
         </is>
       </c>
     </row>
@@ -1011,45 +1011,45 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1174 (48.0)</t>
+          <t>1223 (47.9)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4673 (44.1)</t>
+          <t>4878 (43.9)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>905 (48.2)</t>
+          <t>954 (48.0)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3499 (44.1)</t>
+          <t>3703 (44.0)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>706 (48.1)</t>
+          <t>756 (48.2)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2768 (45.2)</t>
+          <t>2963 (44.9)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>579 (48.0)</t>
+          <t>630 (48.2)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2195 (45.1)</t>
+          <t>2386 (44.8)</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>770 (31.5)</t>
+          <t>803 (31.5)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>490 (4.6)</t>
+          <t>518 (4.7)</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>593 (31.6)</t>
+          <t>628 (31.6)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>373 (4.7)</t>
+          <t>399 (4.7)</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>461 (31.4)</t>
+          <t>495 (31.6)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>308 (5.0)</t>
+          <t>336 (5.1)</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>385 (32.0)</t>
+          <t>418 (32.0)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>241 (4.9)</t>
+          <t>269 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1133,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>196 (8.0)</t>
+          <t>200 (7.8)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1545 (14.6)</t>
+          <t>1576 (14.2)</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>137 (7.3)</t>
+          <t>139 (7.0)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1025 (12.9)</t>
+          <t>1060 (12.6)</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>101 (6.9)</t>
+          <t>104 (6.6)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>718 (11.7)</t>
+          <t>753 (11.4)</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>84 (7.0)</t>
+          <t>88 (6.7)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>510 (10.5)</t>
+          <t>546 (10.3)</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>805 (32.9)</t>
+          <t>835 (32.7)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4481 (42.3)</t>
+          <t>4639 (41.7)</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>650 (34.6)</t>
+          <t>680 (34.2)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3322 (41.9)</t>
+          <t>3490 (41.4)</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>511 (34.8)</t>
+          <t>539 (34.4)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2592 (42.3)</t>
+          <t>2760 (41.8)</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>440 (36.5)</t>
+          <t>469 (35.9)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2049 (42.1)</t>
+          <t>2216 (41.6)</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>434 (17.7)</t>
+          <t>503 (19.7)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1762 (16.6)</t>
+          <t>2082 (18.7)</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1274,12 +1274,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>370 (19.7)</t>
+          <t>438 (22.0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1464 (18.5)</t>
+          <t>1770 (21.0)</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>303 (20.7)</t>
+          <t>365 (23.3)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1222 (19.9)</t>
+          <t>1508 (22.9)</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>266 (22.1)</t>
+          <t>322 (24.7)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1026 (21.1)</t>
+          <t>1292 (24.3)</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>650 (26.6)</t>
+          <t>726 (28.4)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2667 (25.2)</t>
+          <t>3055 (27.5)</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1338,12 +1338,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>533 (28.4)</t>
+          <t>611 (30.7)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2173 (27.4)</t>
+          <t>2544 (30.2)</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>433 (29.5)</t>
+          <t>505 (32.2)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1776 (29.0)</t>
+          <t>2122 (32.2)</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>380 (31.5)</t>
+          <t>446 (34.2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1471 (30.2)</t>
+          <t>1794 (33.7)</t>
         </is>
       </c>
     </row>
@@ -1389,12 +1389,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1207 (49.3)</t>
+          <t>1282 (50.2)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5398 (50.9)</t>
+          <t>5712 (51.4)</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1103 (58.7)</t>
+          <t>1186 (59.7)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4803 (60.6)</t>
+          <t>5151 (61.2)</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1415,12 +1415,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>957 (65.2)</t>
+          <t>1041 (66.4)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4204 (68.6)</t>
+          <t>4566 (69.2)</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>874 (72.5)</t>
+          <t>966 (74.0)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3653 (75.0)</t>
+          <t>4020 (75.5)</t>
         </is>
       </c>
     </row>
@@ -1453,12 +1453,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>227 (9.3)</t>
+          <t>244 (9.6)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>494 (4.7)</t>
+          <t>541 (4.9)</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>232 (12.4)</t>
+          <t>257 (12.9)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>593 (7.5)</t>
+          <t>657 (7.8)</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>216 (14.7)</t>
+          <t>245 (15.6)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>604 (9.9)</t>
+          <t>680 (10.3)</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1492,12 +1492,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>204 (16.9)</t>
+          <t>230 (17.6)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>559 (11.5)</t>
+          <t>644 (12.1)</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1517,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>999 (40.8)</t>
+          <t>1070 (41.9)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5074 (47.9)</t>
+          <t>5342 (48.1)</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1530,12 +1530,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>874 (46.5)</t>
+          <t>953 (48.0)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4249 (53.6)</t>
+          <t>4545 (54.0)</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>745 (50.8)</t>
+          <t>819 (52.2)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3520 (57.4)</t>
+          <t>3823 (58.0)</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>667 (55.4)</t>
+          <t>745 (57.0)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2959 (60.7)</t>
+          <t>3278 (61.6)</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1392 (56.9)</t>
+          <t>1489 (58.3)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6318 (59.6)</t>
+          <t>6731 (60.6)</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1220 (65.0)</t>
+          <t>1319 (66.4)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5314 (67.0)</t>
+          <t>5728 (68.0)</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1036 (70.6)</t>
+          <t>1131 (72.1)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4508 (73.5)</t>
+          <t>4913 (74.5)</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>920 (76.3)</t>
+          <t>1020 (78.1)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3856 (79.1)</t>
+          <t>4254 (79.9)</t>
         </is>
       </c>
     </row>
@@ -1645,12 +1645,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>371 (15.2)</t>
+          <t>415 (16.3)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1027 (9.7)</t>
+          <t>1165 (10.5)</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>320 (17.0)</t>
+          <t>367 (18.5)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>936 (11.8)</t>
+          <t>1080 (12.8)</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>280 (19.1)</t>
+          <t>324 (20.7)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>829 (13.5)</t>
+          <t>976 (14.8)</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>250 (20.7)</t>
+          <t>294 (22.5)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>728 (14.9)</t>
+          <t>877 (16.5)</t>
         </is>
       </c>
     </row>
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1181 (48.2)</t>
+          <t>1275 (49.9)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5932 (55.9)</t>
+          <t>6324 (56.9)</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>987 (52.6)</t>
+          <t>1082 (54.5)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4746 (59.8)</t>
+          <t>5137 (61.0)</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>830 (56.6)</t>
+          <t>922 (58.8)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3860 (63.0)</t>
+          <t>4241 (64.3)</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>730 (60.6)</t>
+          <t>822 (62.9)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3212 (65.9)</t>
+          <t>3589 (67.4)</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1502 (61.4)</t>
+          <t>1582 (62.0)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6318 (59.6)</t>
+          <t>6691 (60.2)</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1786,12 +1786,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1212 (64.5)</t>
+          <t>1296 (65.2)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4949 (62.4)</t>
+          <t>5325 (63.2)</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>995 (67.8)</t>
+          <t>1074 (68.5)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3993 (65.1)</t>
+          <t>4362 (66.1)</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1812,12 +1812,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>853 (70.8)</t>
+          <t>935 (71.6)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3290 (67.5)</t>
+          <t>3650 (68.5)</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>256 (10.5)</t>
+          <t>279 (10.9)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1296 (12.2)</t>
+          <t>1370 (12.3)</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>221 (11.8)</t>
+          <t>243 (12.2)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1058 (13.3)</t>
+          <t>1141 (13.5)</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>178 (12.1)</t>
+          <t>199 (12.7)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>879 (14.3)</t>
+          <t>962 (14.6)</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>167 (13.9)</t>
+          <t>190 (14.5)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>728 (14.9)</t>
+          <t>815 (15.3)</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1901,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2385 (97.4)</t>
+          <t>2490 (97.5)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10357 (97.7)</t>
+          <t>10866 (97.8)</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1845 (98.2)</t>
+          <t>1954 (98.3)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>7821 (98.6)</t>
+          <t>8312 (98.7)</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1449 (98.8)</t>
+          <t>1550 (98.9)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6078 (99.2)</t>
+          <t>6545 (99.2)</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1940,12 +1940,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1197 (99.3)</t>
+          <t>1298 (99.4)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>4850 (99.5)</t>
+          <t>5303 (99.6)</t>
         </is>
       </c>
     </row>
@@ -1965,12 +1965,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1704 (69.6)</t>
+          <t>1782 (69.8)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6977 (65.8)</t>
+          <t>7281 (65.5)</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1328 (70.7)</t>
+          <t>1409 (70.9)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5205 (65.6)</t>
+          <t>5503 (65.3)</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1044 (71.2)</t>
+          <t>1119 (71.4)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3970 (64.8)</t>
+          <t>4255 (64.5)</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2004,12 +2004,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>861 (71.5)</t>
+          <t>936 (71.7)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3165 (65.0)</t>
+          <t>3435 (64.5)</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>915 (37.4)</t>
+          <t>955 (37.4)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3851 (36.3)</t>
+          <t>4064 (36.6)</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>721 (38.4)</t>
+          <t>763 (38.4)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2989 (37.7)</t>
+          <t>3201 (38.0)</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>585 (39.9)</t>
+          <t>623 (39.7)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2348 (38.3)</t>
+          <t>2549 (38.6)</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2068,12 +2068,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>481 (39.9)</t>
+          <t>521 (39.9)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1884 (38.7)</t>
+          <t>2079 (39.0)</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2093,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>562 (23.0)</t>
+          <t>584 (22.9)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2623 (24.7)</t>
+          <t>2754 (24.8)</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>435 (23.2)</t>
+          <t>457 (23.0)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2002 (25.2)</t>
+          <t>2130 (25.3)</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2119,12 +2119,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>362 (24.7)</t>
+          <t>382 (24.4)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1567 (25.6)</t>
+          <t>1690 (25.6)</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2132,12 +2132,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>299 (24.8)</t>
+          <t>321 (24.6)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1262 (25.9)</t>
+          <t>1385 (26.0)</t>
         </is>
       </c>
     </row>
@@ -2157,12 +2157,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>34 (1.4)</t>
+          <t>35 (1.4)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>152 (1.4)</t>
+          <t>171 (1.5)</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24 (1.3)</t>
+          <t>25 (1.3)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>119 (1.5)</t>
+          <t>136 (1.6)</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20 (1.4)</t>
+          <t>21 (1.3)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>103 (1.7)</t>
+          <t>119 (1.8)</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16 (1.3)</t>
+          <t>17 (1.3)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>85 (1.7)</t>
+          <t>101 (1.9)</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>754 (30.8)</t>
+          <t>784 (30.7)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4137 (39.0)</t>
+          <t>4313 (38.8)</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>573 (30.5)</t>
+          <t>603 (30.3)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3011 (38.0)</t>
+          <t>3181 (37.8)</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>436 (29.7)</t>
+          <t>463 (29.5)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2268 (37.0)</t>
+          <t>2432 (36.9)</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2260,12 +2260,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>347 (28.8)</t>
+          <t>375 (28.7)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1776 (36.5)</t>
+          <t>1934 (36.3)</t>
         </is>
       </c>
     </row>
@@ -2331,45 +2331,45 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19 (0.8)</t>
+          <t>20 (0.8)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>68 (0.6)</t>
+          <t>70 (0.6)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11 (0.6)</t>
+          <t>12 (0.6)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>53 (0.7)</t>
+          <t>55 (0.7)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>9 (0.6)</t>
+          <t>10 (0.6)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>42 (0.7)</t>
+          <t>43 (0.7)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>8 (0.7)</t>
+          <t>9 (0.7)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>32 (0.7)</t>
+          <t>34 (0.6)</t>
         </is>
       </c>
     </row>
@@ -2383,45 +2383,45 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>161 (6.6)</t>
+          <t>168 (6.6)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>532 (5.0)</t>
+          <t>549 (4.9)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>129 (6.9)</t>
+          <t>137 (6.9)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>406 (5.1)</t>
+          <t>423 (5.0)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>114 (7.8)</t>
+          <t>121 (7.7)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>296 (4.8)</t>
+          <t>312 (4.7)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>95 (7.9)</t>
+          <t>100 (7.7)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>239 (4.9)</t>
+          <t>255 (4.8)</t>
         </is>
       </c>
     </row>
@@ -2435,45 +2435,45 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>62 (2.5)</t>
+          <t>66 (2.6)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>185 (1.7)</t>
+          <t>197 (1.8)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>49 (2.6)</t>
+          <t>53 (2.7)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>146 (1.8)</t>
+          <t>156 (1.9)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>41 (2.8)</t>
+          <t>44 (2.8)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>114 (1.9)</t>
+          <t>124 (1.9)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>34 (2.8)</t>
+          <t>37 (2.8)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>90 (1.8)</t>
+          <t>98 (1.8)</t>
         </is>
       </c>
     </row>
@@ -2487,45 +2487,45 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>264 (10.8)</t>
+          <t>278 (10.9)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>461 (4.3)</t>
+          <t>490 (4.4)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>207 (11.0)</t>
+          <t>224 (11.3)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>383 (4.8)</t>
+          <t>412 (4.9)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>169 (11.5)</t>
+          <t>185 (11.8)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>307 (5.0)</t>
+          <t>338 (5.1)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>143 (11.9)</t>
+          <t>157 (12.0)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>245 (5.0)</t>
+          <t>274 (5.1)</t>
         </is>
       </c>
     </row>
@@ -2539,45 +2539,45 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1939 (79.2)</t>
+          <t>2018 (79.0)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>9355 (88.2)</t>
+          <t>9805 (88.2)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1479 (78.8)</t>
+          <t>1558 (78.4)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>6944 (87.5)</t>
+          <t>7377 (87.6)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1133 (77.2)</t>
+          <t>1207 (77.0)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>5371 (87.6)</t>
+          <t>5780 (87.6)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>924 (76.7)</t>
+          <t>1002 (76.7)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>4266 (87.6)</t>
+          <t>4664 (87.6)</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>75 (3.1)</t>
+          <t>76 (3.0)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>300 (2.8)</t>
+          <t>314 (2.8)</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2610,12 +2610,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>62 (3.3)</t>
+          <t>62 (3.1)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>226 (2.8)</t>
+          <t>240 (2.8)</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>48 (3.3)</t>
+          <t>49 (3.1)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>164 (2.7)</t>
+          <t>179 (2.7)</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>35 (2.9)</t>
+          <t>36 (2.8)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>138 (2.8)</t>
+          <t>150 (2.8)</t>
         </is>
       </c>
     </row>
@@ -2655,45 +2655,45 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>986 (40.3)</t>
+          <t>1022 (40.0)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2962 (27.9)</t>
+          <t>3090 (27.8)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>747 (39.8)</t>
+          <t>786 (39.6)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2226 (28.1)</t>
+          <t>2355 (28.0)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>597 (40.7)</t>
+          <t>634 (40.4)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1709 (27.9)</t>
+          <t>1828 (27.7)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>486 (40.3)</t>
+          <t>528 (40.4)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1359 (27.9)</t>
+          <t>1476 (27.7)</t>
         </is>
       </c>
     </row>
@@ -2707,45 +2707,45 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1387 (56.7)</t>
+          <t>1455 (57.0)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7341 (69.2)</t>
+          <t>7709 (69.4)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1069 (56.9)</t>
+          <t>1139 (57.3)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>5480 (69.1)</t>
+          <t>5828 (69.2)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>822 (56.0)</t>
+          <t>885 (56.4)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>4257 (69.4)</t>
+          <t>4590 (69.6)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>684 (56.8)</t>
+          <t>742 (56.8)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3375 (69.3)</t>
+          <t>3699 (69.5)</t>
         </is>
       </c>
     </row>
@@ -2765,12 +2765,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>117 (4.8)</t>
+          <t>120 (4.7)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>472 (4.5)</t>
+          <t>499 (4.5)</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2778,12 +2778,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>91 (4.8)</t>
+          <t>94 (4.7)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>374 (4.7)</t>
+          <t>401 (4.8)</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>70 (4.8)</t>
+          <t>73 (4.7)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>289 (4.7)</t>
+          <t>315 (4.8)</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>52 (4.3)</t>
+          <t>54 (4.1)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>225 (4.6)</t>
+          <t>251 (4.7)</t>
         </is>
       </c>
     </row>
@@ -2829,12 +2829,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>139 (5.7)</t>
+          <t>146 (5.7)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>507 (4.8)</t>
+          <t>523 (4.7)</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>97 (5.2)</t>
+          <t>104 (5.2)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>412 (5.2)</t>
+          <t>431 (5.1)</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>83 (5.7)</t>
+          <t>90 (5.7)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>339 (5.5)</t>
+          <t>358 (5.4)</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>74 (6.1)</t>
+          <t>82 (6.3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>287 (5.9)</t>
+          <t>306 (5.7)</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>84 (0.8)</t>
+          <t>88 (0.8)</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>58 (0.7)</t>
+          <t>62 (0.7)</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>38 (0.6)</t>
+          <t>42 (0.6)</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>8 (0.7)</t>
+          <t>8 (0.6)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>29 (0.6)</t>
+          <t>33 (0.6)</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>20 (0.2)</t>
+          <t>23 (0.2)</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>13 (0.2)</t>
+          <t>16 (0.2)</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2984,7 +2984,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>11 (0.2)</t>
+          <t>13 (0.2)</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2993,7 +2993,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>9 (0.2)</t>
+          <t>11 (0.2)</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>68 [58,78]</t>
+          <t>68 [58,79]</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3086,33 +3086,33 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
+          <t>64 [52,75]</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>68 [57,78]</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
           <t>64 [51,75]</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>68 [57,78]</t>
         </is>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>64 [51,74]</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>67 [57,77]</t>
-        </is>
-      </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>64 [51,74]</t>
+          <t>64 [52,75]</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3129,55 +3129,55 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>10855</v>
+        <v>11081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.23 [3.23,8.99]</t>
+          <t>5.46 [3.46,9.94]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.38 [3.29,9.38]</t>
+          <t>5.79 [3.54,10.29]</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7976</v>
+        <v>8202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6.65 [4.30,10.23]</t>
+          <t>6.88 [4.47,11.46]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>6.63 [4.37,10.63]</t>
+          <t>7.02 [4.54,11.63]</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>6072</v>
+        <v>6292</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>7.63 [5.44,11.84]</t>
+          <t>8.00 [5.50,12.58]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>7.88 [5.54,11.83]</t>
+          <t>8.25 [5.70,13.00]</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4785</v>
+        <v>5017</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8.58 [6.63,12.65]</t>
+          <t>9.19 [6.72,13.61]</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>9.00 [6.63,13.07]</t>
+          <t>9.36 [6.71,14.08]</t>
         </is>
       </c>
     </row>
@@ -3189,55 +3189,55 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>2196</v>
+        <v>2585</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.17 [2.83,7.71]</t>
+          <t>4.23 [2.88,8.04]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.08 [2.79,7.17]</t>
+          <t>4.13 [2.83,7.48]</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1834</v>
+        <v>2208</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5.67 [3.92,9.84]</t>
+          <t>5.79 [3.96,10.42]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>5.46 [3.92,9.04]</t>
+          <t>5.67 [3.92,9.46]</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1525</v>
+        <v>1873</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>7.21 [5.08,11.83]</t>
+          <t>7.54 [5.13,12.58]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>7.04 [5.04,11.01]</t>
+          <t>7.17 [5.13,11.79]</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1292</v>
+        <v>1614</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8.96 [6.25,13.42]</t>
+          <t>9.21 [6.33,14.01]</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>8.48 [6.25,12.96]</t>
+          <t>8.75 [6.33,13.79]</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>10855</v>
+        <v>11081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3258,24 +3258,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11.00 [6.00,18.75]</t>
+          <t>11.00 [6.00,19.00]</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7976</v>
+        <v>8202</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11.00 [7.00,19.75]</t>
+          <t>12.00 [7.00,20.00]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12.00 [7.00,19.00]</t>
+          <t>12.00 [7.00,20.00]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6072</v>
+        <v>6292</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4785</v>
+        <v>5017</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>14.00 [9.00,21.00]</t>
+          <t>14.00 [9.00,23.00]</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>2196</v>
+        <v>2585</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3322,11 +3322,11 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1834</v>
+        <v>2208</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14.00 [9.00,23.00]</t>
+          <t>14.00 [9.00,24.00]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3335,29 +3335,29 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1525</v>
+        <v>1873</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>16.00 [11.00,25.00]</t>
+          <t>17.00 [11.00,26.00]</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>15.00 [10.00,23.00]</t>
+          <t>15.00 [10.00,24.00]</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1292</v>
+        <v>1614</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>18.00 [12.00,27.00]</t>
+          <t>19.00 [13.00,28.25]</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>17.00 [12.00,25.00]</t>
+          <t>17.00 [12.00,26.00]</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>6 [4,9]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>6 [4,8]</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>5 [3,8]</t>
-        </is>
-      </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>6 [4,10]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>4756</v>
+        <v>4933</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3502,33 +3502,33 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3187</v>
+        <v>3349</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>2 [1,4]</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>2 [1,3]</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="n">
+        <v>2409</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2 [1,4]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>2 [2,3]</t>
         </is>
       </c>
-      <c r="I53" t="n">
-        <v>2265</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>2 [1,4]</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2 [2,3]</t>
-        </is>
-      </c>
       <c r="L53" t="n">
-        <v>1680</v>
+        <v>1817</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3575,20 +3575,20 @@
         </is>
       </c>
       <c r="I54" t="n">
+        <v>16</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0 [0,1]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0 [0,1]</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
         <v>14</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0 [0,1]</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0 [0,1]</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>12</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>5163</v>
+        <v>5308</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3716</v>
+        <v>3863</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2789</v>
+        <v>2934</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2157</v>
+        <v>2306</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3682,20 +3682,20 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>1 [1,4]</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>1 [1,3]</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>1 [1,3]</t>
-        </is>
-      </c>
       <c r="I56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -3849,55 +3849,55 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>4731</v>
+        <v>4942</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>729 [246,1498]</t>
+          <t>748 [250,1500]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>650 [210,1463]</t>
+          <t>681 [220,1500]</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3642</v>
+        <v>3848</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>843 [251,1516]</t>
+          <t>861 [258,1533]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>750 [250,1555]</t>
+          <t>784 [250,1582]</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2844</v>
+        <v>3043</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>900 [279,1569]</t>
+          <t>915 [289,1601]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>848 [275,1660]</t>
+          <t>877 [285,1695]</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2271</v>
+        <v>2475</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>995 [300,1634]</t>
+          <t>997 [310,1631]</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>922 [300,1729]</t>
+          <t>950 [301,1767]</t>
         </is>
       </c>
     </row>
@@ -3909,16 +3909,16 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2648 [994,5920]</t>
+          <t>2915 [1043,6446]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2369 [817,5431]</t>
+          <t>2546 [870,5886]</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>3460 [1437,7132]</t>
+          <t>3795 [1521,7992]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3254 [1261,6823]</t>
+          <t>3480 [1340,7370]</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3939,12 +3939,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>4405 [2011,8575]</t>
+          <t>4722 [2123,9457]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>4132 [1773,8008]</t>
+          <t>4403 [1879,8700]</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -3952,12 +3952,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>5241 [2500,9579]</t>
+          <t>5743 [2737,10586]</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>4938 [2351,9048]</t>
+          <t>5295 [2521,9891]</t>
         </is>
       </c>
     </row>
@@ -3969,16 +3969,16 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>506.2 [226.7,963.1]</t>
+          <t>521.7 [240.1,984.1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>477.0 [204.8,905.2]</t>
+          <t>487.9 [213.9,917.1]</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3986,12 +3986,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>516.0 [251.4,928.5]</t>
+          <t>540.2 [271.1,953.8]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>490.4 [227.6,883.4]</t>
+          <t>503.4 [239.2,895.4]</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3999,12 +3999,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>532.7 [276.3,912.8]</t>
+          <t>553.1 [296.4,947.0]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>505.5 [255.0,870.4]</t>
+          <t>516.5 [265.4,884.1]</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -4012,12 +4012,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>543.2 [291.7,925.1]</t>
+          <t>562.1 [305.2,947.0]</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>522.8 [278.3,863.5]</t>
+          <t>531.2 [291.0,874.2]</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>7672</v>
+        <v>7992</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5498</v>
+        <v>5801</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4055,11 +4055,11 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>4081</v>
+        <v>4359</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>50 [40,61]</t>
+          <t>50 [40,60]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4068,11 +4068,11 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3148</v>
+        <v>3420</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>50 [40,62]</t>
+          <t>50 [40,60]</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4089,55 +4089,55 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>5341</v>
+        <v>5446</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>39.0 [17.0,86.2]</t>
+          <t>43.0 [18.0,97.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>32.0 [15.0,76.0]</t>
+          <t>35.0 [15.0,86.0]</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3276</v>
+        <v>3363</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>49.0 [21.8,100.0]</t>
+          <t>55.0 [23.0,112.5]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>42.0 [18.0,91.0]</t>
+          <t>46.0 [19.0,101.0]</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2053</v>
+        <v>2121</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>60.0 [25.0,115.0]</t>
+          <t>66.0 [27.0,134.0]</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>51.0 [21.0,104.0]</t>
+          <t>56.0 [23.0,116.0]</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1301</v>
+        <v>1357</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>70.0 [30.0,131.2]</t>
+          <t>80.0 [34.0,154.2]</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>61.0 [25.0,117.0]</t>
+          <t>66.0 [28.0,131.0]</t>
         </is>
       </c>
     </row>
@@ -4149,55 +4149,55 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>5341</v>
+        <v>5446</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>0.31 [0.15,0.52]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.26 [0.13,0.45]</t>
+          <t>0.27 [0.13,0.46]</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3276</v>
+        <v>3363</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>0.32 [0.15,0.53]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.25 [0.12,0.45]</t>
+          <t>0.26 [0.13,0.46]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2053</v>
+        <v>2121</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>0.32 [0.15,0.52]</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.26 [0.12,0.46]</t>
+          <t>0.27 [0.13,0.47]</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1301</v>
+        <v>1357</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.31 [0.14,0.50]</t>
+          <t>0.33 [0.15,0.53]</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0.27 [0.12,0.46]</t>
+          <t>0.28 [0.13,0.47]</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>5341</v>
+        <v>5446</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4222,42 +4222,42 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3276</v>
+        <v>3363</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2.0 [1.0,10.0]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2053</v>
+        <v>2121</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2.5 [1.0,12.0]</t>
+          <t>3.0 [1.0,13.0]</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.0]</t>
+          <t>3.0 [1.0,14.0]</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1301</v>
+        <v>1357</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.2]</t>
+          <t>3.0 [1.0,14.0]</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,17.0]</t>
+          <t>3.0 [1.0,18.0]</t>
         </is>
       </c>
     </row>
@@ -4269,55 +4269,55 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>11653</v>
+        <v>12086</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16.0 [4.0,41.0]</t>
+          <t>18.0 [4.0,48.5]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>25.0 [5.5,63.0]</t>
+          <t>27.0 [6.0,69.0]</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8554</v>
+        <v>8963</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18.5 [4.0,55.0]</t>
+          <t>21.0 [5.0,60.0]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>27.0 [6.0,69.0]</t>
+          <t>30.5 [7.8,77.0]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6488</v>
+        <v>6865</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>22.0 [4.7,62.5]</t>
+          <t>24.0 [5.0,69.5]</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>32.0 [7.0,76.0]</t>
+          <t>36.0 [8.0,88.0]</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5099</v>
+        <v>5460</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>22.5 [5.0,73.2]</t>
+          <t>25.0 [5.2,78.8]</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>38.5 [8.8,87.0]</t>
+          <t>42.0 [10.0,100.0]</t>
         </is>
       </c>
     </row>
@@ -4329,11 +4329,11 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>5827</v>
+        <v>5950</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.0 [1.0,12.0]</t>
+          <t>3.0 [1.0,13.0]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4342,42 +4342,42 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3992</v>
+        <v>4101</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,17.0]</t>
+          <t>4.0 [1.0,18.5]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,14.0]</t>
+          <t>4.0 [1.0,15.8]</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2858</v>
+        <v>2952</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,22.0]</t>
+          <t>4.0 [1.0,22.2]</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,19.0]</t>
+          <t>4.0 [1.0,20.0]</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2098</v>
+        <v>2182</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>5.0 [1.0,25.5]</t>
+          <t>5.0 [1.0,27.0]</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,23.0]</t>
+          <t>5.0 [1.0,25.0]</t>
         </is>
       </c>
     </row>
@@ -4389,55 +4389,55 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>5827</v>
+        <v>5950</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>29.0 [10.0,65.0]</t>
+          <t>32.0 [11.0,72.0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>29.0 [11.0,62.0]</t>
+          <t>31.0 [11.0,68.0]</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3992</v>
+        <v>4101</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>37.0 [11.0,79.8]</t>
+          <t>41.0 [13.0,90.0]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>37.0 [14.0,76.0]</t>
+          <t>40.0 [15.0,84.0]</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2858</v>
+        <v>2952</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>45.0 [14.0,94.0]</t>
+          <t>48.5 [15.0,104.0]</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>44.0 [17.0,92.0]</t>
+          <t>49.0 [18.0,101.0]</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2098</v>
+        <v>2182</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>48.0 [16.0,107.0]</t>
+          <t>54.0 [17.5,117.5]</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>51.0 [19.0,103.0]</t>
+          <t>56.0 [20.0,112.0]</t>
         </is>
       </c>
     </row>
@@ -4449,55 +4449,55 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>5827</v>
+        <v>5950</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.23 [0.08,0.48]</t>
+          <t>0.24 [0.08,0.49]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>0.25 [0.09,0.48]</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>4101</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.23 [0.08,0.49]</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>0.25 [0.09,0.47]</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>3992</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.22 [0.07,0.46]</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="n">
+        <v>2952</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0.22 [0.07,0.49]</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>0.24 [0.09,0.47]</t>
         </is>
       </c>
-      <c r="I69" t="n">
-        <v>2858</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0.21 [0.07,0.46]</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="n">
+        <v>2182</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0.22 [0.07,0.48]</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
         <is>
           <t>0.24 [0.08,0.46]</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>2098</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>0.21 [0.06,0.45]</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>0.23 [0.08,0.45]</t>
         </is>
       </c>
     </row>
@@ -4509,55 +4509,55 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
+        <v>28</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>19.5 [17.0,22.7]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>19.1 [16.8,22.1]</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>26</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>19.5 [17.0,22.8]</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>19.3 [17.0,22.3]</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>19.7 [17.1,23.0]</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>19.5 [17.1,22.5]</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
         <v>24</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>19.4 [17.0,22.6]</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>19.1 [16.8,22.0]</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>22</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>19.5 [16.9,22.8]</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>19.3 [17.0,22.2]</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>22</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>19.7 [17.1,22.9]</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>19.4 [17.1,22.4]</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>20</v>
-      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>19.8 [17.2,22.9]</t>
+          <t>19.8 [17.3,23.0]</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>19.6 [17.2,22.6]</t>
+          <t>19.6 [17.3,22.7]</t>
         </is>
       </c>
     </row>
@@ -4569,55 +4569,55 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.5 [71.1,85.4]</t>
+          <t>77.2 [71.0,85.2]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>74.7 [69.4,81.6]</t>
+          <t>74.7 [69.4,81.5]</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>77.9 [71.5,85.9]</t>
+          <t>77.6 [71.3,85.5]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>74.8 [69.4,82.0]</t>
+          <t>74.8 [69.4,81.9]</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>77.9 [71.5,86.4]</t>
+          <t>77.6 [71.3,86.0]</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>75.1 [69.5,82.3]</t>
+          <t>75.1 [69.4,82.2]</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>77.9 [71.4,86.3]</t>
+          <t>77.5 [71.2,86.0]</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>75.3 [69.5,82.6]</t>
+          <t>75.2 [69.5,82.4]</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>693</v>
+        <v>720</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -4689,11 +4689,11 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>98.0 [96.3,99.2]</t>
+          <t>97.9 [96.3,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4702,42 +4702,42 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>97.9 [96.3,99.2]</t>
+          <t>97.9 [96.2,99.2]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>97.3 [95.7,98.6]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>97.9 [96.2,99.2]</t>
+          <t>97.8 [96.1,99.2]</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>97.3 [95.7,98.6]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>97.9 [96.2,99.2]</t>
+          <t>97.9 [96.1,99.2]</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>97.2 [95.7,98.6]</t>
+          <t>97.2 [95.6,98.6]</t>
         </is>
       </c>
     </row>
@@ -4749,55 +4749,55 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>87.5 [76.4,100.6]</t>
+          <t>87.8 [76.6,100.8]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>85.8 [75.8,97.9]</t>
+          <t>86.0 [75.9,98.2]</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>87.8 [76.7,101.0]</t>
+          <t>87.9 [76.9,101.0]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>86.5 [76.0,98.7]</t>
+          <t>86.7 [76.1,99.0]</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>88.4 [76.6,101.4]</t>
+          <t>88.5 [76.9,101.4]</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>87.1 [76.1,99.3]</t>
+          <t>87.3 [76.2,99.6]</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>88.1 [76.7,101.7]</t>
+          <t>88.5 [77.1,101.7]</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>87.5 [76.2,100.0]</t>
+          <t>87.7 [76.3,100.4]</t>
         </is>
       </c>
     </row>
@@ -4809,24 +4809,24 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>4014</v>
+        <v>4140</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>88.5 [69.0,124.0]</t>
+          <t>88.0 [68.0,123.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>89.0 [72.0,118.0]</t>
+          <t>88.0 [71.0,117.0]</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2694</v>
+        <v>2809</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>87.0 [68.0,124.0]</t>
+          <t>86.0 [67.0,122.0]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4835,11 +4835,11 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1917</v>
+        <v>2018</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>84.5 [66.0,119.0]</t>
+          <t>84.0 [66.0,118.0]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4848,11 +4848,11 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1420</v>
+        <v>1513</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>85.0 [67.0,121.0]</t>
+          <t>85.0 [67.0,118.0]</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>4014</v>
+        <v>4140</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2694</v>
+        <v>2809</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4895,11 +4895,11 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1917</v>
+        <v>2018</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>44.0 [37.0,53.0]</t>
+          <t>44.0 [37.0,54.0]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4908,11 +4908,11 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1420</v>
+        <v>1513</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>44.0 [37.0,54.0]</t>
+          <t>44.0 [38.0,54.0]</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>2267</v>
+        <v>2339</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1511</v>
+        <v>1573</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1083</v>
+        <v>1140</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>792</v>
+        <v>845</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -4989,11 +4989,11 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>154.0 [122.0,218.0]</t>
+          <t>155.0 [122.0,217.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5002,42 +5002,42 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>157.0 [123.0,223.0]</t>
+          <t>158.0 [123.0,222.0]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>150.0 [121.0,198.0]</t>
+          <t>150.0 [122.0,199.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>160.0 [124.0,226.0]</t>
+          <t>160.0 [124.0,224.5]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>152.0 [122.0,200.0]</t>
+          <t>152.0 [123.0,201.0]</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>162.0 [125.0,226.0]</t>
+          <t>163.0 [126.0,224.0]</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>155.0 [124.0,203.0]</t>
+          <t>155.0 [124.0,204.0]</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -5169,55 +5169,55 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>12719</v>
+        <v>13311</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>22.2 [13.6,31.4]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.4 [12.5,35.6]</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>10141</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>19.0 [13.5,30.9]</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>22.0 [12.5,33.9]</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>9562</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>18.9 [13.5,29.3]</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>22.8 [12.6,35.5]</t>
+          <t>23.1 [12.9,36.6]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>7411</v>
+        <v>7958</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>17.8 [13.0,28.8]</t>
+          <t>18.1 [13.1,30.4]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>23.4 [13.5,36.8]</t>
+          <t>23.7 [13.6,37.7]</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5932</v>
+        <v>6468</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>18.1 [13.4,28.1]</t>
+          <t>18.3 [13.4,28.5]</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>23.2 [13.2,36.8]</t>
+          <t>23.6 [13.4,38.4]</t>
         </is>
       </c>
     </row>
@@ -5229,11 +5229,11 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>1753</v>
+        <v>1819</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9.8 [8.2,11.4]</t>
+          <t>9.8 [8.3,11.4]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5242,11 +5242,11 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1304</v>
+        <v>1367</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>9.8 [8.2,11.5]</t>
+          <t>9.9 [8.3,11.5]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1022</v>
+        <v>1089</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -5268,11 +5268,11 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>811</v>
+        <v>875</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>9.8 [8.3,11.6]</t>
+          <t>9.9 [8.3,11.6]</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5289,55 +5289,55 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>8424</v>
+        <v>8836</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>226.0 [153.0,364.0]</t>
+          <t>227.0 [153.0,361.0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>228.5 [165.0,344.0]</t>
+          <t>230.0 [165.0,348.0]</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6377</v>
+        <v>6767</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>225.5 [150.0,357.5]</t>
+          <t>226.0 [149.0,356.0]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>231.0 [162.0,353.0]</t>
+          <t>233.0 [162.0,356.0]</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4934</v>
+        <v>5303</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>228.0 [150.5,365.0]</t>
+          <t>231.0 [150.5,361.5]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>235.0 [160.0,359.5]</t>
+          <t>237.0 [160.5,363.5]</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3927</v>
+        <v>4290</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>228.0 [150.8,368.2]</t>
+          <t>228.5 [150.8,366.2]</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>241.0 [161.2,369.8]</t>
+          <t>242.0 [161.0,373.0]</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>788</v>
+        <v>811</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
